--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>704.2329848319822</v>
+        <v>0.3724179655839999</v>
       </c>
       <c r="R2">
-        <v>6338.096863487839</v>
+        <v>3.351761690255999</v>
       </c>
       <c r="S2">
-        <v>0.06535757613398491</v>
+        <v>0.0004508558927230581</v>
       </c>
       <c r="T2">
-        <v>0.06535757613398491</v>
+        <v>0.0004508558927230582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>8.928850520026556</v>
+        <v>2.060623024012</v>
       </c>
       <c r="R3">
-        <v>80.35965468023899</v>
+        <v>18.545607216108</v>
       </c>
       <c r="S3">
-        <v>0.0008286576178916634</v>
+        <v>0.002494627324435747</v>
       </c>
       <c r="T3">
-        <v>0.0008286576178916635</v>
+        <v>0.002494627324435747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>51.45798472438432</v>
+        <v>11.875605695772</v>
       </c>
       <c r="R4">
-        <v>463.1218625194589</v>
+        <v>106.880451261948</v>
       </c>
       <c r="S4">
-        <v>0.004775648438460711</v>
+        <v>0.01437682201823495</v>
       </c>
       <c r="T4">
-        <v>0.004775648438460712</v>
+        <v>0.01437682201823496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>9000.341448262026</v>
+        <v>20.62387419015867</v>
       </c>
       <c r="R5">
-        <v>81003.07303435824</v>
+        <v>185.614867711428</v>
       </c>
       <c r="S5">
-        <v>0.8352924587549523</v>
+        <v>0.02496763332786839</v>
       </c>
       <c r="T5">
-        <v>0.8352924587549523</v>
+        <v>0.0249676333278684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>114.1138020393977</v>
@@ -818,10 +818,10 @@
         <v>1027.024218354579</v>
       </c>
       <c r="S6">
-        <v>0.01059053135164893</v>
+        <v>0.1381482228168461</v>
       </c>
       <c r="T6">
-        <v>0.01059053135164893</v>
+        <v>0.1381482228168462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>657.650866594111</v>
@@ -880,10 +880,10 @@
         <v>5918.857799346999</v>
       </c>
       <c r="S7">
-        <v>0.06103444102843413</v>
+        <v>0.7961639769268943</v>
       </c>
       <c r="T7">
-        <v>0.06103444102843414</v>
+        <v>0.7961639769268946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>219.5279595547022</v>
+        <v>0.5030383619448888</v>
       </c>
       <c r="R8">
-        <v>1975.75163599232</v>
+        <v>4.527345257504</v>
       </c>
       <c r="S8">
-        <v>0.02037367694947994</v>
+        <v>0.000608987295747022</v>
       </c>
       <c r="T8">
-        <v>0.02037367694947994</v>
+        <v>0.0006089872957470222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>2.783357749563556</v>
+        <v>2.783357749563555</v>
       </c>
       <c r="R9">
         <v>25.050219746072</v>
       </c>
       <c r="S9">
-        <v>0.0002583143930252265</v>
+        <v>0.003369582992537114</v>
       </c>
       <c r="T9">
-        <v>0.0002583143930252266</v>
+        <v>0.003369582992537115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>16.04080841518133</v>
@@ -1066,10 +1066,10 @@
         <v>144.367275736632</v>
       </c>
       <c r="S10">
-        <v>0.001488695332122234</v>
+        <v>0.01941929140471313</v>
       </c>
       <c r="T10">
-        <v>0.001488695332122234</v>
+        <v>0.01941929140471314</v>
       </c>
     </row>
   </sheetData>
